--- a/Bill/BILL - SRCL.xlsx
+++ b/Bill/BILL - SRCL.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7684BCA-0144-433D-83C3-B20175C38652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,16 +228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -246,12 +238,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -262,31 +271,42 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>83638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>97338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="Logo.JPG"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="447676"/>
-          <a:ext cx="1409701" cy="419099"/>
+          <a:off x="28575" y="502738"/>
+          <a:ext cx="1409701" cy="308975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -341,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,17 +638,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -600,40 +656,40 @@
     <col min="5" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="29.45" customHeight="1">
+    <row r="4" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -644,7 +700,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="29.45" customHeight="1">
+    <row r="5" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -655,7 +711,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="29.45" customHeight="1">
+    <row r="6" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -669,26 +725,26 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="29.45" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1"/>
@@ -697,7 +753,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="29.45" customHeight="1">
+    <row r="8" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -712,7 +768,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="29.45" customHeight="1">
+    <row r="9" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -726,16 +782,16 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="29.45" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="29.45" customHeight="1">
+    <row r="10" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -744,7 +800,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="29.45" customHeight="1">
+    <row r="12" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -753,35 +809,35 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="29.45" customHeight="1">
+    <row r="13" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="63.95" customHeight="1">
+    <row r="14" spans="1:13" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -797,24 +853,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
